--- a/models/2gen_psse/2gen.xlsx
+++ b/models/2gen_psse/2gen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwang2\Documents\GitHub\emt\models\2gen_psse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxiong\Documents\GitHub\ParaEMT_public\models\2gen_psse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A125DB7C-474A-45DA-A295-00A4A1CC2C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B4A85D-028B-476D-AAFA-4862CBD611AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="1500" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gen" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,12 @@
     <sheet name="reecb" sheetId="5" r:id="rId6"/>
     <sheet name="repca" sheetId="6" r:id="rId7"/>
     <sheet name="pll" sheetId="8" r:id="rId8"/>
+    <sheet name="vm" sheetId="9" r:id="rId9"/>
+    <sheet name="mea" sheetId="10" r:id="rId10"/>
+    <sheet name="gen_para" sheetId="11" r:id="rId11"/>
+    <sheet name="exc_para" sheetId="12" r:id="rId12"/>
+    <sheet name="gov_para" sheetId="13" r:id="rId13"/>
+    <sheet name="pss_para" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="171">
   <si>
     <t>D</t>
   </si>
@@ -455,6 +461,96 @@
   </si>
   <si>
     <t>te</t>
+  </si>
+  <si>
+    <t>IEEEST</t>
+  </si>
+  <si>
+    <t>TGOV1</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>R, Permanent Droop</t>
+  </si>
+  <si>
+    <t>R(Speed Droop)</t>
+  </si>
+  <si>
+    <t>T1(&gt;0)(sec)</t>
+  </si>
+  <si>
+    <t>r, Temporary Droop</t>
+  </si>
+  <si>
+    <t>T1(&gt;0)</t>
+  </si>
+  <si>
+    <t>V MAX</t>
+  </si>
+  <si>
+    <t>Tr(&gt;0) Governor Time Constant</t>
+  </si>
+  <si>
+    <t>T2(&gt;0)</t>
+  </si>
+  <si>
+    <t>V MIN</t>
+  </si>
+  <si>
+    <t>Tf(&gt;0) Filter Time Constant</t>
+  </si>
+  <si>
+    <t>T3(&gt;0)</t>
+  </si>
+  <si>
+    <t>T2(sec)</t>
+  </si>
+  <si>
+    <t>Tg(&gt;0) Servo Time Constant</t>
+  </si>
+  <si>
+    <t>Ambient Temperature Load Limit</t>
+  </si>
+  <si>
+    <t>T3(&gt;0)(sec)</t>
+  </si>
+  <si>
+    <t>VELM, Gate Velocity Limit</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>Dt</t>
+  </si>
+  <si>
+    <t>GMAX, Maximum Gate Limit</t>
+  </si>
+  <si>
+    <t>VMAX</t>
+  </si>
+  <si>
+    <t>GMIN, Minimum Gate Limit</t>
+  </si>
+  <si>
+    <t>VMIN</t>
+  </si>
+  <si>
+    <t>TW(&gt;0) Water Time Constant</t>
+  </si>
+  <si>
+    <t>At, Turbine Gain</t>
+  </si>
+  <si>
+    <t>Dturb, Turbine Damping</t>
+  </si>
+  <si>
+    <t>aNL, No Load Flow</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
 </sst>
 </file>
@@ -490,13 +586,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,7 +877,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,6 +1078,439 @@
       </c>
       <c r="C18">
         <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42927E0-6354-4EDE-98AB-E0E487A74957}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553954A8-C6B2-4554-BE87-71227F3CE9BB}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0DF8F1-A918-403D-A36D-20FAC457F209}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E68BFC4-AE4B-4412-B8BF-67F182229283}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5DEDD6-93B7-4DE1-B9B4-EEFF491FE38C}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1887,32 +2417,129 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2FB4F0-39C5-4EE6-BE12-5544379AA4B4}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3">
+        <v>0.05</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7102121F-F20E-4A99-8316-F19E9AF5CCAA}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>140</v>
+      </c>
+      <c r="B3">
+        <v>0.05</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
